--- a/StructureDefinition-ext-R5-ObservationDefinition.component.xlsx
+++ b/StructureDefinition-ext-R5-ObservationDefinition.component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ObservationDefinition.component` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `ObservationDefinition.component` is mapped to FHIR R4 structure `ObservationDefinition`, but has no target element specified.</t>
+Element `ObservationDefinition.component` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:ObservationDefinition</t>
   </si>
   <si>
     <t>ID</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `ObservationDefinition.component.code` is part of an existing definition because parent element `ObservationDefinition.component` requires a cross-version extension.
-Element `ObservationDefinition.component.code` is mapped to FHIR R4 structure `ObservationDefinition`, but has no target element specified.</t>
+Element `ObservationDefinition.component.code` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -431,7 +431,7 @@
   </si>
   <si>
     <t>Element `ObservationDefinition.component.permittedDataType` is part of an existing definition because parent element `ObservationDefinition.component` requires a cross-version extension.
-Element `ObservationDefinition.component.permittedDataType` is mapped to FHIR R4 structure `ObservationDefinition`, but has no target element specified.</t>
+Element `ObservationDefinition.component.permittedDataType` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:permittedDataType.id</t>
@@ -472,7 +472,7 @@
   </si>
   <si>
     <t>Element `ObservationDefinition.component.permittedUnit` is part of an existing definition because parent element `ObservationDefinition.component` requires a cross-version extension.
-Element `ObservationDefinition.component.permittedUnit` is mapped to FHIR R4 structure `ObservationDefinition`, but has no target element specified.</t>
+Element `ObservationDefinition.component.permittedUnit` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:permittedUnit.id</t>
@@ -504,7 +504,7 @@
   </si>
   <si>
     <t>Element `ObservationDefinition.component.qualifiedValue` is part of an existing definition because parent element `ObservationDefinition.component` requires a cross-version extension.
-Element `ObservationDefinition.component.qualifiedValue` is mapped to FHIR R4 structure `ObservationDefinition`, but has no target element specified.</t>
+Element `ObservationDefinition.component.qualifiedValue` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:qualifiedValue.id</t>
@@ -869,7 +869,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="154.8984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="167.95703125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-ObservationDefinition.component.xlsx
+++ b/StructureDefinition-ext-R5-ObservationDefinition.component.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="167">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `ObservationDefinition.component` 0..* `BackboneElement`
 Following are the generation technical comments:
-Element `ObservationDefinition.component` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+Element `ObservationDefinition.component` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -339,7 +339,7 @@
   </si>
   <si>
     <t>Element `ObservationDefinition.component.code` is part of an existing definition because parent element `ObservationDefinition.component` requires a cross-version extension.
-Element `ObservationDefinition.component.code` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+Element `ObservationDefinition.component.code` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -386,6 +386,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.component.code</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -431,7 +434,7 @@
   </si>
   <si>
     <t>Element `ObservationDefinition.component.permittedDataType` is part of an existing definition because parent element `ObservationDefinition.component` requires a cross-version extension.
-Element `ObservationDefinition.component.permittedDataType` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+Element `ObservationDefinition.component.permittedDataType` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:permittedDataType.id</t>
@@ -441,6 +444,9 @@
   </si>
   <si>
     <t>Extension.extension:permittedDataType.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.component.permittedDataType</t>
   </si>
   <si>
     <t>Extension.extension:permittedDataType.value[x]</t>
@@ -472,7 +478,7 @@
   </si>
   <si>
     <t>Element `ObservationDefinition.component.permittedUnit` is part of an existing definition because parent element `ObservationDefinition.component` requires a cross-version extension.
-Element `ObservationDefinition.component.permittedUnit` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+Element `ObservationDefinition.component.permittedUnit` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:permittedUnit.id</t>
@@ -482,6 +488,9 @@
   </si>
   <si>
     <t>Extension.extension:permittedUnit.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.component.permittedUnit</t>
   </si>
   <si>
     <t>Extension.extension:permittedUnit.value[x]</t>
@@ -504,7 +513,7 @@
   </si>
   <si>
     <t>Element `ObservationDefinition.component.qualifiedValue` is part of an existing definition because parent element `ObservationDefinition.component` requires a cross-version extension.
-Element `ObservationDefinition.component.qualifiedValue` is will have a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+Element `ObservationDefinition.component.qualifiedValue` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:qualifiedValue.id</t>
@@ -869,7 +878,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="167.95703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="161.97265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1675,7 +1684,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1717,7 +1726,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1732,15 +1741,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1763,7 +1772,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1796,13 +1805,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -1820,7 +1829,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1832,21 +1841,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1871,14 +1880,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1947,7 +1956,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2050,7 +2059,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2155,7 +2164,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2198,7 +2207,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2240,7 +2249,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2255,15 +2264,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2286,13 +2295,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2319,13 +2328,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2343,7 +2352,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2355,21 +2364,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2394,14 +2403,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2470,7 +2479,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2573,7 +2582,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2678,7 +2687,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2721,7 +2730,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2763,7 +2772,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2778,15 +2787,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2809,13 +2818,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2866,7 +2875,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2878,21 +2887,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2917,14 +2926,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -2993,7 +3002,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3096,7 +3105,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3201,7 +3210,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3244,7 +3253,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3286,7 +3295,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3301,15 +3310,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3332,13 +3341,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3389,7 +3398,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3401,18 +3410,18 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3494,7 +3503,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>86</v>
@@ -3509,15 +3518,15 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3540,13 +3549,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3597,7 +3606,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3609,10 +3618,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-ObservationDefinition.component.xlsx
+++ b/StructureDefinition-ext-R5-ObservationDefinition.component.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="161">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -405,15 +405,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-observation-codes-for-R4</t>
-  </si>
-  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -454,15 +445,6 @@
   <si>
     <t xml:space="preserve">code
 </t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Permitted data type for observation value.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-permitted-data-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:permittedUnit</t>
@@ -888,8 +870,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="39.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.84765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1805,43 +1787,43 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y9" t="s" s="2">
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>120</v>
@@ -1849,13 +1831,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1880,14 +1862,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1956,7 +1938,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2059,7 +2041,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2164,7 +2146,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2207,7 +2189,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2269,7 +2251,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>122</v>
@@ -2295,13 +2277,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2328,13 +2310,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2352,7 +2334,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2364,7 +2346,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>120</v>
@@ -2372,13 +2354,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2403,14 +2385,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2479,7 +2461,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2582,7 +2564,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2687,7 +2669,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2730,7 +2712,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2792,7 +2774,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -2818,13 +2800,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2875,7 +2857,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2887,7 +2869,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>120</v>
@@ -2895,13 +2877,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2926,14 +2908,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3002,7 +2984,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3105,7 +3087,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3210,7 +3192,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>113</v>
@@ -3253,7 +3235,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3315,7 +3297,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>122</v>
@@ -3341,13 +3323,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3398,7 +3380,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3410,7 +3392,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>120</v>
@@ -3523,10 +3505,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3549,13 +3531,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3606,7 +3588,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3618,7 +3600,7 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>120</v>

--- a/StructureDefinition-ext-R5-ObservationDefinition.component.xlsx
+++ b/StructureDefinition-ext-R5-ObservationDefinition.component.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -338,8 +338,7 @@
     <t>Describes what will be observed.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.component.code` is part of an existing definition because parent element `ObservationDefinition.component` requires a cross-version extension.
-Element `ObservationDefinition.component.code` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.component.code` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:code.id</t>
@@ -386,9 +385,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.component.code</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -424,8 +420,7 @@
     <t>The data types allowed for the value element of the instance of this component observations.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.component.permittedDataType` is part of an existing definition because parent element `ObservationDefinition.component` requires a cross-version extension.
-Element `ObservationDefinition.component.permittedDataType` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.component.permittedDataType` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:permittedDataType.id</t>
@@ -435,9 +430,6 @@
   </si>
   <si>
     <t>Extension.extension:permittedDataType.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.component.permittedDataType</t>
   </si>
   <si>
     <t>Extension.extension:permittedDataType.value[x]</t>
@@ -447,6 +439,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Permitted data type for observation value.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/permitted-data-type|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:permittedUnit</t>
   </si>
   <si>
@@ -459,8 +460,7 @@
     <t>Units allowed for the valueQuantity element in the instance observations conforming to this ObservationDefinition.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.component.permittedUnit` is part of an existing definition because parent element `ObservationDefinition.component` requires a cross-version extension.
-Element `ObservationDefinition.component.permittedUnit` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.component.permittedUnit` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:permittedUnit.id</t>
@@ -470,9 +470,6 @@
   </si>
   <si>
     <t>Extension.extension:permittedUnit.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-ObservationDefinition.component.permittedUnit</t>
   </si>
   <si>
     <t>Extension.extension:permittedUnit.value[x]</t>
@@ -494,8 +491,7 @@
     <t>A set of qualified values associated with a context and a set of conditions -  provides a range for quantitative and ordinal observations and a collection of value sets for qualitative observations.</t>
   </si>
   <si>
-    <t>Element `ObservationDefinition.component.qualifiedValue` is part of an existing definition because parent element `ObservationDefinition.component` requires a cross-version extension.
-Element `ObservationDefinition.component.qualifiedValue` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
+    <t>Element `ObservationDefinition.component.qualifiedValue` has a context of ObservationDefinition based on following the parent source element upwards and mapping to `ObservationDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:qualifiedValue.id</t>
@@ -870,8 +866,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="35.05859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="45.51953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1666,72 +1662,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1754,7 +1750,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>101</v>
@@ -1811,33 +1807,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1862,14 +1858,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1938,7 +1934,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>105</v>
@@ -2041,7 +2037,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>107</v>
@@ -2146,7 +2142,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>113</v>
@@ -2189,7 +2185,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2231,30 +2227,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2277,13 +2273,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2310,13 +2306,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2334,33 +2330,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2385,14 +2381,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2461,7 +2457,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2564,7 +2560,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -2669,7 +2665,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -2712,7 +2708,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2754,22 +2750,22 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
@@ -2777,7 +2773,7 @@
         <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2803,10 +2799,10 @@
         <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2857,22 +2853,22 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20">
@@ -3277,22 +3273,22 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="24">
@@ -3300,7 +3296,7 @@
         <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3380,30 +3376,30 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3485,30 +3481,30 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3588,22 +3584,22 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
